--- a/data/pca/factorExposure/factorExposure_2012-01-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01574944222693552</v>
+        <v>0.01528794824692123</v>
       </c>
       <c r="C2">
-        <v>0.03035576887192596</v>
+        <v>0.02509010523198551</v>
       </c>
       <c r="D2">
-        <v>0.01841272740259883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01781920455100272</v>
+      </c>
+      <c r="E2">
+        <v>0.013712444972913</v>
+      </c>
+      <c r="F2">
+        <v>-0.01619483636276864</v>
+      </c>
+      <c r="G2">
+        <v>0.005643034802504422</v>
+      </c>
+      <c r="H2">
+        <v>-0.04690936916070536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07347914796249233</v>
+        <v>0.0872233130450624</v>
       </c>
       <c r="C4">
-        <v>0.05322457667341519</v>
+        <v>0.03884940098079001</v>
       </c>
       <c r="D4">
-        <v>0.08432625143987037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0691389477745943</v>
+      </c>
+      <c r="E4">
+        <v>0.006428136560882728</v>
+      </c>
+      <c r="F4">
+        <v>-0.03757125396621224</v>
+      </c>
+      <c r="G4">
+        <v>0.003608829989474524</v>
+      </c>
+      <c r="H4">
+        <v>0.03787552388535276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1098684963915083</v>
+        <v>0.1221645954493011</v>
       </c>
       <c r="C6">
-        <v>0.0509905605800103</v>
+        <v>0.03648059924515883</v>
       </c>
       <c r="D6">
-        <v>0.006737090974233491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01167826183034262</v>
+      </c>
+      <c r="E6">
+        <v>-0.02301135881283535</v>
+      </c>
+      <c r="F6">
+        <v>-0.05267471849863275</v>
+      </c>
+      <c r="G6">
+        <v>0.03270164335344985</v>
+      </c>
+      <c r="H6">
+        <v>-0.116716346211998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05375861524575537</v>
+        <v>0.06321748078463377</v>
       </c>
       <c r="C7">
-        <v>0.02527620699400667</v>
+        <v>0.01382912101927419</v>
       </c>
       <c r="D7">
-        <v>0.03587859576942461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04810816362398829</v>
+      </c>
+      <c r="E7">
+        <v>0.03630552354116332</v>
+      </c>
+      <c r="F7">
+        <v>-0.03694914547128883</v>
+      </c>
+      <c r="G7">
+        <v>-0.03257339611702394</v>
+      </c>
+      <c r="H7">
+        <v>0.01668219465415339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04092450546625299</v>
+        <v>0.04223589334989971</v>
       </c>
       <c r="C8">
-        <v>0.0144550018671355</v>
+        <v>0.009255803629242731</v>
       </c>
       <c r="D8">
-        <v>0.06324468972770117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02577528056658313</v>
+      </c>
+      <c r="E8">
+        <v>0.01794612147349192</v>
+      </c>
+      <c r="F8">
+        <v>-0.0604624334414561</v>
+      </c>
+      <c r="G8">
+        <v>0.0598950366493709</v>
+      </c>
+      <c r="H8">
+        <v>-0.01533060815705856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06804040864909802</v>
+        <v>0.07880100501811509</v>
       </c>
       <c r="C9">
-        <v>0.03963156464782523</v>
+        <v>0.02613651207100819</v>
       </c>
       <c r="D9">
-        <v>0.07715984234866034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06434848825690428</v>
+      </c>
+      <c r="E9">
+        <v>0.02586224326350579</v>
+      </c>
+      <c r="F9">
+        <v>-0.03498421747320592</v>
+      </c>
+      <c r="G9">
+        <v>0.0122223333553127</v>
+      </c>
+      <c r="H9">
+        <v>0.04729190815973102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03201426191636033</v>
+        <v>0.04020319328068424</v>
       </c>
       <c r="C10">
-        <v>0.0266046551075341</v>
+        <v>0.0487724409103169</v>
       </c>
       <c r="D10">
-        <v>-0.1705286620012248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1719102096459351</v>
+      </c>
+      <c r="E10">
+        <v>0.0371367616298624</v>
+      </c>
+      <c r="F10">
+        <v>-0.05198300479230804</v>
+      </c>
+      <c r="G10">
+        <v>-0.01682373185991209</v>
+      </c>
+      <c r="H10">
+        <v>-0.03769484104392072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07211374527234432</v>
+        <v>0.07651791485785027</v>
       </c>
       <c r="C11">
-        <v>0.04205903237140207</v>
+        <v>0.0225970950331824</v>
       </c>
       <c r="D11">
-        <v>0.05606212148555778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06337740690078146</v>
+      </c>
+      <c r="E11">
+        <v>-0.005865413641862755</v>
+      </c>
+      <c r="F11">
+        <v>-0.02982310347937702</v>
+      </c>
+      <c r="G11">
+        <v>0.01764162564842027</v>
+      </c>
+      <c r="H11">
+        <v>0.07440732854722014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06065976369937636</v>
+        <v>0.0691305300141825</v>
       </c>
       <c r="C12">
-        <v>0.05088162455100126</v>
+        <v>0.03483868559468215</v>
       </c>
       <c r="D12">
-        <v>0.04478519656534721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04772398780485359</v>
+      </c>
+      <c r="E12">
+        <v>0.01080086885811502</v>
+      </c>
+      <c r="F12">
+        <v>-0.02140741046912286</v>
+      </c>
+      <c r="G12">
+        <v>0.01203858887059748</v>
+      </c>
+      <c r="H12">
+        <v>0.03113741702042083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06543061391262217</v>
+        <v>0.06671306213651342</v>
       </c>
       <c r="C13">
-        <v>0.0343570018500166</v>
+        <v>0.01915807027498025</v>
       </c>
       <c r="D13">
-        <v>0.04735883418955786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0385905638935107</v>
+      </c>
+      <c r="E13">
+        <v>0.01302713239401817</v>
+      </c>
+      <c r="F13">
+        <v>-0.01315942491120938</v>
+      </c>
+      <c r="G13">
+        <v>-0.0008558206650003057</v>
+      </c>
+      <c r="H13">
+        <v>0.0563652249256652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03307442768229878</v>
+        <v>0.03944169640445094</v>
       </c>
       <c r="C14">
-        <v>0.03051693095676285</v>
+        <v>0.02685196572034711</v>
       </c>
       <c r="D14">
-        <v>0.004315606973943919</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01350374714934937</v>
+      </c>
+      <c r="E14">
+        <v>0.03241533503614161</v>
+      </c>
+      <c r="F14">
+        <v>-0.01471133694245219</v>
+      </c>
+      <c r="G14">
+        <v>0.01781518307532157</v>
+      </c>
+      <c r="H14">
+        <v>0.05790206456501177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03983408310485191</v>
+        <v>0.03970686157983451</v>
       </c>
       <c r="C15">
-        <v>0.008365511173451277</v>
+        <v>0.002369558819691744</v>
       </c>
       <c r="D15">
-        <v>0.02011325448676904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007635935341097589</v>
+      </c>
+      <c r="E15">
+        <v>0.03541310770861791</v>
+      </c>
+      <c r="F15">
+        <v>0.0006491096190644892</v>
+      </c>
+      <c r="G15">
+        <v>0.02787805849504587</v>
+      </c>
+      <c r="H15">
+        <v>0.03098936926642566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06091690878647599</v>
+        <v>0.07107689015024306</v>
       </c>
       <c r="C16">
-        <v>0.03950030293616685</v>
+        <v>0.02504570227242018</v>
       </c>
       <c r="D16">
-        <v>0.04888387590973729</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.0607773964449578</v>
+      </c>
+      <c r="E16">
+        <v>0.003443192898033671</v>
+      </c>
+      <c r="F16">
+        <v>-0.02869362701726059</v>
+      </c>
+      <c r="G16">
+        <v>0.009663695562320225</v>
+      </c>
+      <c r="H16">
+        <v>0.04912179564354691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06334451604709287</v>
+        <v>0.06344161935599571</v>
       </c>
       <c r="C20">
-        <v>0.02439914045038076</v>
+        <v>0.009284919763870456</v>
       </c>
       <c r="D20">
-        <v>0.05024154191136639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03967838855038584</v>
+      </c>
+      <c r="E20">
+        <v>0.01626876159195816</v>
+      </c>
+      <c r="F20">
+        <v>-0.02845494489761492</v>
+      </c>
+      <c r="G20">
+        <v>0.01746410308826176</v>
+      </c>
+      <c r="H20">
+        <v>0.03648136703925444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0270012460916975</v>
+        <v>0.02694009441262859</v>
       </c>
       <c r="C21">
-        <v>-0.002016241157565201</v>
+        <v>-0.009449242536290215</v>
       </c>
       <c r="D21">
-        <v>0.02124880525876836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02302820498092395</v>
+      </c>
+      <c r="E21">
+        <v>0.04295809044449064</v>
+      </c>
+      <c r="F21">
+        <v>0.01388640169619852</v>
+      </c>
+      <c r="G21">
+        <v>0.006356525785782972</v>
+      </c>
+      <c r="H21">
+        <v>-0.04646564144545252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07989627944918916</v>
+        <v>0.06947477310346425</v>
       </c>
       <c r="C22">
-        <v>0.05935474906159252</v>
+        <v>0.0334604197564038</v>
       </c>
       <c r="D22">
-        <v>0.1356399529529485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0944381444280739</v>
+      </c>
+      <c r="E22">
+        <v>0.6051868370458269</v>
+      </c>
+      <c r="F22">
+        <v>0.1191503480901144</v>
+      </c>
+      <c r="G22">
+        <v>-0.1040196329616997</v>
+      </c>
+      <c r="H22">
+        <v>-0.1526652563472421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08087286789062313</v>
+        <v>0.07029513220061592</v>
       </c>
       <c r="C23">
-        <v>0.05808648667513235</v>
+        <v>0.03198982770901569</v>
       </c>
       <c r="D23">
-        <v>0.1369837750272195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.09514497964180814</v>
+      </c>
+      <c r="E23">
+        <v>0.604290200611181</v>
+      </c>
+      <c r="F23">
+        <v>0.1181329026995463</v>
+      </c>
+      <c r="G23">
+        <v>-0.1026891576424782</v>
+      </c>
+      <c r="H23">
+        <v>-0.1491363080042949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07513410886413056</v>
+        <v>0.08025173914849663</v>
       </c>
       <c r="C24">
-        <v>0.0509094574421529</v>
+        <v>0.03131062576443522</v>
       </c>
       <c r="D24">
-        <v>0.0600924489394199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06195881807725993</v>
+      </c>
+      <c r="E24">
+        <v>0.01482880007586395</v>
+      </c>
+      <c r="F24">
+        <v>-0.03559172473200375</v>
+      </c>
+      <c r="G24">
+        <v>0.02293876810484239</v>
+      </c>
+      <c r="H24">
+        <v>0.03680412522429811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07415266221708976</v>
+        <v>0.07860012131521807</v>
       </c>
       <c r="C25">
-        <v>0.05375704714339354</v>
+        <v>0.03502427265003537</v>
       </c>
       <c r="D25">
-        <v>0.06471166386169244</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05118871915275396</v>
+      </c>
+      <c r="E25">
+        <v>0.01969797494864165</v>
+      </c>
+      <c r="F25">
+        <v>-0.03073498422867929</v>
+      </c>
+      <c r="G25">
+        <v>0.03263966865650295</v>
+      </c>
+      <c r="H25">
+        <v>0.04458946551376239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04457158566472128</v>
+        <v>0.04653306102355004</v>
       </c>
       <c r="C26">
-        <v>0.008154527488368415</v>
+        <v>5.014421488214997e-05</v>
       </c>
       <c r="D26">
-        <v>0.01287096670725904</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0175415318446242</v>
+      </c>
+      <c r="E26">
+        <v>0.04168249277010441</v>
+      </c>
+      <c r="F26">
+        <v>-0.03319558222719357</v>
+      </c>
+      <c r="G26">
+        <v>-0.001497656362561092</v>
+      </c>
+      <c r="H26">
+        <v>0.04902393929385938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05354537238897243</v>
+        <v>0.06863409640479917</v>
       </c>
       <c r="C28">
-        <v>0.06974475422165402</v>
+        <v>0.1020332764954029</v>
       </c>
       <c r="D28">
-        <v>-0.304627813635376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3021298214151131</v>
+      </c>
+      <c r="E28">
+        <v>0.03495185986868209</v>
+      </c>
+      <c r="F28">
+        <v>-0.05899357081806991</v>
+      </c>
+      <c r="G28">
+        <v>0.03329125200400289</v>
+      </c>
+      <c r="H28">
+        <v>-0.03876818015287779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04286131007064398</v>
+        <v>0.04760910626219721</v>
       </c>
       <c r="C29">
-        <v>0.02889738030737975</v>
+        <v>0.02407305426103529</v>
       </c>
       <c r="D29">
-        <v>0.009973808509822187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01137902622222254</v>
+      </c>
+      <c r="E29">
+        <v>0.06201394745239335</v>
+      </c>
+      <c r="F29">
+        <v>-0.01497968687110126</v>
+      </c>
+      <c r="G29">
+        <v>0.005236992178144343</v>
+      </c>
+      <c r="H29">
+        <v>0.07805600066560142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1294652120660262</v>
+        <v>0.1287980972008997</v>
       </c>
       <c r="C30">
-        <v>0.08698361930444461</v>
+        <v>0.05757403314029574</v>
       </c>
       <c r="D30">
-        <v>0.1006999503392774</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07216761004389409</v>
+      </c>
+      <c r="E30">
+        <v>0.0839262902957697</v>
+      </c>
+      <c r="F30">
+        <v>-0.004994296830867192</v>
+      </c>
+      <c r="G30">
+        <v>0.08282195741457327</v>
+      </c>
+      <c r="H30">
+        <v>-0.07485585886708603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04528617130258306</v>
+        <v>0.0484340009065009</v>
       </c>
       <c r="C31">
-        <v>0.02247134599580704</v>
+        <v>0.012394241976356</v>
       </c>
       <c r="D31">
-        <v>0.02573806285081315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03185763396016938</v>
+      </c>
+      <c r="E31">
+        <v>0.02421742865324494</v>
+      </c>
+      <c r="F31">
+        <v>-0.009224190316368027</v>
+      </c>
+      <c r="G31">
+        <v>-0.01748091545484797</v>
+      </c>
+      <c r="H31">
+        <v>0.06947764451273623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03742318188826486</v>
+        <v>0.03869575327755322</v>
       </c>
       <c r="C32">
-        <v>0.0244194680252905</v>
+        <v>0.02114029331043225</v>
       </c>
       <c r="D32">
-        <v>0.02408732058495816</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01096030668613934</v>
+      </c>
+      <c r="E32">
+        <v>0.05697930097888783</v>
+      </c>
+      <c r="F32">
+        <v>0.006224946541824533</v>
+      </c>
+      <c r="G32">
+        <v>0.04781010292369264</v>
+      </c>
+      <c r="H32">
+        <v>0.06013203666770745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08483137992046416</v>
+        <v>0.09435286802682692</v>
       </c>
       <c r="C33">
-        <v>0.03877767328426685</v>
+        <v>0.02200305321754535</v>
       </c>
       <c r="D33">
-        <v>0.05622264963262393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0476768447703091</v>
+      </c>
+      <c r="E33">
+        <v>0.01728201613172888</v>
+      </c>
+      <c r="F33">
+        <v>-0.008801387200041113</v>
+      </c>
+      <c r="G33">
+        <v>0.006755389078099561</v>
+      </c>
+      <c r="H33">
+        <v>0.05700728755858024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05847672317407852</v>
+        <v>0.06343524672191964</v>
       </c>
       <c r="C34">
-        <v>0.02522567229841954</v>
+        <v>0.009850737911984197</v>
       </c>
       <c r="D34">
-        <v>0.05248348202942046</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04951237262758325</v>
+      </c>
+      <c r="E34">
+        <v>0.008142115742241966</v>
+      </c>
+      <c r="F34">
+        <v>-0.0216585556940989</v>
+      </c>
+      <c r="G34">
+        <v>0.01040964328892253</v>
+      </c>
+      <c r="H34">
+        <v>0.05439256536168004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03622794722521415</v>
+        <v>0.03829878692393977</v>
       </c>
       <c r="C35">
-        <v>0.007518035826938726</v>
+        <v>0.001986366633266646</v>
       </c>
       <c r="D35">
-        <v>0.01720289248976072</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01400757752936995</v>
+      </c>
+      <c r="E35">
+        <v>0.02169127033280206</v>
+      </c>
+      <c r="F35">
+        <v>0.01615422324304775</v>
+      </c>
+      <c r="G35">
+        <v>-0.007462768647315072</v>
+      </c>
+      <c r="H35">
+        <v>0.02080043161953023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02425791638414172</v>
+        <v>0.02855789464012755</v>
       </c>
       <c r="C36">
-        <v>0.01812292502033919</v>
+        <v>0.01402796828629679</v>
       </c>
       <c r="D36">
-        <v>0.02212657273171333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01654333799105113</v>
+      </c>
+      <c r="E36">
+        <v>0.03072682452037206</v>
+      </c>
+      <c r="F36">
+        <v>-0.02438150777413493</v>
+      </c>
+      <c r="G36">
+        <v>-0.002424236396218737</v>
+      </c>
+      <c r="H36">
+        <v>0.04062582050268863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04325750576612661</v>
+        <v>0.04376015823301126</v>
       </c>
       <c r="C38">
-        <v>0.002465710033232346</v>
+        <v>-0.005443744506045537</v>
       </c>
       <c r="D38">
-        <v>0.01926654355353234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02182824772968923</v>
+      </c>
+      <c r="E38">
+        <v>0.05054336129661016</v>
+      </c>
+      <c r="F38">
+        <v>0.008314446547089033</v>
+      </c>
+      <c r="G38">
+        <v>0.007588982245713004</v>
+      </c>
+      <c r="H38">
+        <v>0.03377704715342401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09204804101302232</v>
+        <v>0.1004855726344201</v>
       </c>
       <c r="C39">
-        <v>0.06757458663251216</v>
+        <v>0.046980310709051</v>
       </c>
       <c r="D39">
-        <v>0.05470029801026315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06457447519538333</v>
+      </c>
+      <c r="E39">
+        <v>0.008410378601280454</v>
+      </c>
+      <c r="F39">
+        <v>0.005074833631343415</v>
+      </c>
+      <c r="G39">
+        <v>0.04461140214953009</v>
+      </c>
+      <c r="H39">
+        <v>0.02892167563389826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07955544013555697</v>
+        <v>0.06320367058664113</v>
       </c>
       <c r="C40">
-        <v>0.03336330501021063</v>
+        <v>0.004788065921200538</v>
       </c>
       <c r="D40">
-        <v>0.004293552347454396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02848447673749157</v>
+      </c>
+      <c r="E40">
+        <v>0.03633107425662877</v>
+      </c>
+      <c r="F40">
+        <v>0.04741075043630733</v>
+      </c>
+      <c r="G40">
+        <v>0.03217997705225207</v>
+      </c>
+      <c r="H40">
+        <v>-0.09331609301180477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04319762212280513</v>
+        <v>0.04440845022472804</v>
       </c>
       <c r="C41">
-        <v>0.004941622990407827</v>
+        <v>-0.005426120438934477</v>
       </c>
       <c r="D41">
-        <v>0.03747871937164158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03291473248589735</v>
+      </c>
+      <c r="E41">
+        <v>0.002282357902818127</v>
+      </c>
+      <c r="F41">
+        <v>0.01568951789251671</v>
+      </c>
+      <c r="G41">
+        <v>0.01378490585420722</v>
+      </c>
+      <c r="H41">
+        <v>0.03590192680630516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0524179102837334</v>
+        <v>0.05959277135024661</v>
       </c>
       <c r="C43">
-        <v>0.02573616887553614</v>
+        <v>0.01618552507363609</v>
       </c>
       <c r="D43">
-        <v>0.01618760403765305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02824764948617749</v>
+      </c>
+      <c r="E43">
+        <v>0.02227856015556868</v>
+      </c>
+      <c r="F43">
+        <v>-0.01213602292703249</v>
+      </c>
+      <c r="G43">
+        <v>-0.01420207932754777</v>
+      </c>
+      <c r="H43">
+        <v>0.06719575343403522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09703455801626036</v>
+        <v>0.09536458981675543</v>
       </c>
       <c r="C44">
-        <v>0.08526580759608929</v>
+        <v>0.05789306605414528</v>
       </c>
       <c r="D44">
-        <v>0.07662386947568772</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06656753773150452</v>
+      </c>
+      <c r="E44">
+        <v>0.08020100885693163</v>
+      </c>
+      <c r="F44">
+        <v>-0.07169324252861742</v>
+      </c>
+      <c r="G44">
+        <v>0.03030785849316838</v>
+      </c>
+      <c r="H44">
+        <v>0.01574423554569385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02620362273502318</v>
+        <v>0.03477604696220216</v>
       </c>
       <c r="C46">
-        <v>0.01470980274202508</v>
+        <v>0.01035947790464599</v>
       </c>
       <c r="D46">
-        <v>0.03090193353314147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03667398836977207</v>
+      </c>
+      <c r="E46">
+        <v>0.03381154371427084</v>
+      </c>
+      <c r="F46">
+        <v>-0.01315894679486649</v>
+      </c>
+      <c r="G46">
+        <v>-0.000366671662895457</v>
+      </c>
+      <c r="H46">
+        <v>0.03629467214524318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0318965968256501</v>
+        <v>0.03874992320647823</v>
       </c>
       <c r="C47">
-        <v>0.02389643303837363</v>
+        <v>0.01923805667077697</v>
       </c>
       <c r="D47">
-        <v>0.006919234169977401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009876255351154216</v>
+      </c>
+      <c r="E47">
+        <v>0.04517287301683513</v>
+      </c>
+      <c r="F47">
+        <v>-0.0115650378233253</v>
+      </c>
+      <c r="G47">
+        <v>-0.03914464417145243</v>
+      </c>
+      <c r="H47">
+        <v>0.04142222409490409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03495869400359049</v>
+        <v>0.03811341036088371</v>
       </c>
       <c r="C48">
-        <v>0.01782808758086066</v>
+        <v>0.009791942227319899</v>
       </c>
       <c r="D48">
-        <v>0.03364245885711699</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02060817128881931</v>
+      </c>
+      <c r="E48">
+        <v>0.03855036125053764</v>
+      </c>
+      <c r="F48">
+        <v>-0.008296280709975285</v>
+      </c>
+      <c r="G48">
+        <v>0.01758178036921968</v>
+      </c>
+      <c r="H48">
+        <v>0.03362488238879195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1618321196117305</v>
+        <v>0.1917496455625534</v>
       </c>
       <c r="C49">
-        <v>0.04866276371357758</v>
+        <v>0.02894950989333846</v>
       </c>
       <c r="D49">
-        <v>0.0002794370118396703</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03407070222525609</v>
+      </c>
+      <c r="E49">
+        <v>-0.165659952370967</v>
+      </c>
+      <c r="F49">
+        <v>-0.05621911798844596</v>
+      </c>
+      <c r="G49">
+        <v>-0.09574955594244068</v>
+      </c>
+      <c r="H49">
+        <v>-0.2204872761677822</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04002267310506973</v>
+        <v>0.04479026802117028</v>
       </c>
       <c r="C50">
-        <v>0.01950036125775563</v>
+        <v>0.01147956382537664</v>
       </c>
       <c r="D50">
-        <v>0.04546000666258876</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03766452528329724</v>
+      </c>
+      <c r="E50">
+        <v>0.04222201315337968</v>
+      </c>
+      <c r="F50">
+        <v>-0.01231110245482137</v>
+      </c>
+      <c r="G50">
+        <v>-0.0159638308738961</v>
+      </c>
+      <c r="H50">
+        <v>0.0747814139401434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02847502701072157</v>
+        <v>0.03289308437577402</v>
       </c>
       <c r="C51">
-        <v>0.01044426644933093</v>
+        <v>0.006071456951315822</v>
       </c>
       <c r="D51">
-        <v>0.003742990060646789</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.004743323766551575</v>
+      </c>
+      <c r="E51">
+        <v>0.008579532985964726</v>
+      </c>
+      <c r="F51">
+        <v>-0.01555652169127352</v>
+      </c>
+      <c r="G51">
+        <v>-0.003059761802832327</v>
+      </c>
+      <c r="H51">
+        <v>-0.004226480031864541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1566982290443766</v>
+        <v>0.1617193249861171</v>
       </c>
       <c r="C53">
-        <v>0.07254087860243753</v>
+        <v>0.04665441047616441</v>
       </c>
       <c r="D53">
-        <v>0.00176753728225859</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02411277248244207</v>
+      </c>
+      <c r="E53">
+        <v>-0.03244372701570858</v>
+      </c>
+      <c r="F53">
+        <v>-0.004816194469473594</v>
+      </c>
+      <c r="G53">
+        <v>-0.01390518025684114</v>
+      </c>
+      <c r="H53">
+        <v>0.1905955865369044</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05670849058234459</v>
+        <v>0.057755930709254</v>
       </c>
       <c r="C54">
-        <v>0.02152448030670927</v>
+        <v>0.01174542580323334</v>
       </c>
       <c r="D54">
-        <v>0.01798699392421288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01374899992668408</v>
+      </c>
+      <c r="E54">
+        <v>0.04786053632382514</v>
+      </c>
+      <c r="F54">
+        <v>-0.009134717389286897</v>
+      </c>
+      <c r="G54">
+        <v>0.03635546162156039</v>
+      </c>
+      <c r="H54">
+        <v>0.04191303930503158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1006025574574957</v>
+        <v>0.1041270819690453</v>
       </c>
       <c r="C55">
-        <v>0.04878693628025511</v>
+        <v>0.03098893226229887</v>
       </c>
       <c r="D55">
-        <v>0.02222843056072096</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02811316759393848</v>
+      </c>
+      <c r="E55">
+        <v>0.006411286210430502</v>
+      </c>
+      <c r="F55">
+        <v>-0.009467071216840976</v>
+      </c>
+      <c r="G55">
+        <v>-0.003694428778625522</v>
+      </c>
+      <c r="H55">
+        <v>0.153593944807118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1518520411361502</v>
+        <v>0.1596131767509617</v>
       </c>
       <c r="C56">
-        <v>0.08321788595229476</v>
+        <v>0.05576487162224824</v>
       </c>
       <c r="D56">
-        <v>0.01105613993219961</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03392046075739531</v>
+      </c>
+      <c r="E56">
+        <v>-0.01876181810518477</v>
+      </c>
+      <c r="F56">
+        <v>-0.02671003905960639</v>
+      </c>
+      <c r="G56">
+        <v>-0.01868517198982536</v>
+      </c>
+      <c r="H56">
+        <v>0.1965717953944882</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1319236673338665</v>
+        <v>0.09970937719365686</v>
       </c>
       <c r="C58">
-        <v>-0.003923541304662322</v>
+        <v>-0.04656397943676347</v>
       </c>
       <c r="D58">
-        <v>0.02564770589784998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03336918087707739</v>
+      </c>
+      <c r="E58">
+        <v>0.139430258408385</v>
+      </c>
+      <c r="F58">
+        <v>-0.006736583074639152</v>
+      </c>
+      <c r="G58">
+        <v>-0.05088572545421159</v>
+      </c>
+      <c r="H58">
+        <v>-0.2226280907333294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1261587704061185</v>
+        <v>0.1449987014146097</v>
       </c>
       <c r="C59">
-        <v>0.0775992823214169</v>
+        <v>0.107817310481895</v>
       </c>
       <c r="D59">
-        <v>-0.3757768348393822</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.356088771267334</v>
+      </c>
+      <c r="E59">
+        <v>0.02698976747066409</v>
+      </c>
+      <c r="F59">
+        <v>-0.01161753059778618</v>
+      </c>
+      <c r="G59">
+        <v>-0.01639046543387316</v>
+      </c>
+      <c r="H59">
+        <v>-0.003936615603757458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2085189738773749</v>
+        <v>0.2379303662250654</v>
       </c>
       <c r="C60">
-        <v>0.09039376932496555</v>
+        <v>0.06086829714611099</v>
       </c>
       <c r="D60">
-        <v>0.02455476014437771</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04643928768081696</v>
+      </c>
+      <c r="E60">
+        <v>-0.1086120900708475</v>
+      </c>
+      <c r="F60">
+        <v>-0.05342415114650585</v>
+      </c>
+      <c r="G60">
+        <v>0.001127113461734268</v>
+      </c>
+      <c r="H60">
+        <v>-0.1455538207041336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08258076967748229</v>
+        <v>0.08878886131004246</v>
       </c>
       <c r="C61">
-        <v>0.0483783505613968</v>
+        <v>0.03279982820255299</v>
       </c>
       <c r="D61">
-        <v>0.03856832453382791</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04271696020418959</v>
+      </c>
+      <c r="E61">
+        <v>0.00278771370097177</v>
+      </c>
+      <c r="F61">
+        <v>-0.001225113085898507</v>
+      </c>
+      <c r="G61">
+        <v>0.01234682206167348</v>
+      </c>
+      <c r="H61">
+        <v>0.05610581348112095</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1315296766448417</v>
+        <v>0.1375607829290799</v>
       </c>
       <c r="C62">
-        <v>0.05891178163474042</v>
+        <v>0.03316286065979453</v>
       </c>
       <c r="D62">
-        <v>0.02083074082982604</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04323380438972887</v>
+      </c>
+      <c r="E62">
+        <v>-0.05338806206116114</v>
+      </c>
+      <c r="F62">
+        <v>0.001741916873542195</v>
+      </c>
+      <c r="G62">
+        <v>0.02265855580405526</v>
+      </c>
+      <c r="H62">
+        <v>0.1867400741596621</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05212212965734594</v>
+        <v>0.05231245963661405</v>
       </c>
       <c r="C63">
-        <v>0.02257066787822763</v>
+        <v>0.01349762868192857</v>
       </c>
       <c r="D63">
-        <v>0.02440436872668245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01922376283676939</v>
+      </c>
+      <c r="E63">
+        <v>0.04854452847217592</v>
+      </c>
+      <c r="F63">
+        <v>0.00338454346764935</v>
+      </c>
+      <c r="G63">
+        <v>0.0217889791471829</v>
+      </c>
+      <c r="H63">
+        <v>0.04357535639984471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1045858200180535</v>
+        <v>0.1085545247946381</v>
       </c>
       <c r="C64">
-        <v>0.03009711710314224</v>
+        <v>0.01412319226684769</v>
       </c>
       <c r="D64">
-        <v>0.03700281972308996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03074753009625215</v>
+      </c>
+      <c r="E64">
+        <v>0.03205939705585935</v>
+      </c>
+      <c r="F64">
+        <v>-0.04496366289605935</v>
+      </c>
+      <c r="G64">
+        <v>0.06067554783715821</v>
+      </c>
+      <c r="H64">
+        <v>0.03641883208012889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1287085462356743</v>
+        <v>0.129616763155776</v>
       </c>
       <c r="C65">
-        <v>0.0585461834621398</v>
+        <v>0.04010084929674312</v>
       </c>
       <c r="D65">
-        <v>0.003709891033493787</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.009862182133917442</v>
+      </c>
+      <c r="E65">
+        <v>-0.003486903947891962</v>
+      </c>
+      <c r="F65">
+        <v>-0.04895766935438079</v>
+      </c>
+      <c r="G65">
+        <v>0.05701548811170147</v>
+      </c>
+      <c r="H65">
+        <v>-0.1447468083501213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1488162568045721</v>
+        <v>0.1521616876172515</v>
       </c>
       <c r="C66">
-        <v>0.0668027317566665</v>
+        <v>0.03486160208287082</v>
       </c>
       <c r="D66">
-        <v>0.09978505043611015</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09889146007576252</v>
+      </c>
+      <c r="E66">
+        <v>-0.02036065030697237</v>
+      </c>
+      <c r="F66">
+        <v>-0.001370999162421435</v>
+      </c>
+      <c r="G66">
+        <v>0.0541646431449497</v>
+      </c>
+      <c r="H66">
+        <v>0.09047457141001138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0756339197081671</v>
+        <v>0.08412020260716901</v>
       </c>
       <c r="C67">
-        <v>0.00948086181873983</v>
+        <v>-0.001294163941285954</v>
       </c>
       <c r="D67">
-        <v>0.02434416415843815</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03390498354035253</v>
+      </c>
+      <c r="E67">
+        <v>0.01637252942541267</v>
+      </c>
+      <c r="F67">
+        <v>-0.01581405113044565</v>
+      </c>
+      <c r="G67">
+        <v>-0.008412792415485468</v>
+      </c>
+      <c r="H67">
+        <v>0.04145956053212974</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06052733367208645</v>
+        <v>0.06364685287302367</v>
       </c>
       <c r="C68">
-        <v>0.04974665219375475</v>
+        <v>0.07627708023787418</v>
       </c>
       <c r="D68">
-        <v>-0.2536248951497762</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2647310521921987</v>
+      </c>
+      <c r="E68">
+        <v>0.03987803427834213</v>
+      </c>
+      <c r="F68">
+        <v>-0.01476707518173439</v>
+      </c>
+      <c r="G68">
+        <v>-0.007345243194335222</v>
+      </c>
+      <c r="H68">
+        <v>0.008128140443987662</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05188327349355105</v>
+        <v>0.05233417010141449</v>
       </c>
       <c r="C69">
-        <v>0.01437285800456117</v>
+        <v>0.003262264257419236</v>
       </c>
       <c r="D69">
-        <v>0.02405115905967106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01902217282856046</v>
+      </c>
+      <c r="E69">
+        <v>0.02634198022989969</v>
+      </c>
+      <c r="F69">
+        <v>0.01341027014872528</v>
+      </c>
+      <c r="G69">
+        <v>-0.0167962200877356</v>
+      </c>
+      <c r="H69">
+        <v>0.05904583927906043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003330917085301967</v>
+        <v>0.027433085265681</v>
       </c>
       <c r="C70">
-        <v>-0.008760630224098653</v>
+        <v>-0.003363631619836735</v>
       </c>
       <c r="D70">
-        <v>-0.007581307359013002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.003810227088955506</v>
+      </c>
+      <c r="E70">
+        <v>-0.02499221943361772</v>
+      </c>
+      <c r="F70">
+        <v>-0.0106685041699668</v>
+      </c>
+      <c r="G70">
+        <v>-0.01649264550631064</v>
+      </c>
+      <c r="H70">
+        <v>-0.01680398215406105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05924931221244672</v>
+        <v>0.06701184070629308</v>
       </c>
       <c r="C71">
-        <v>0.05013999954755976</v>
+        <v>0.0835098497633691</v>
       </c>
       <c r="D71">
-        <v>-0.2886958849055022</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2913754820496071</v>
+      </c>
+      <c r="E71">
+        <v>0.0344472240367338</v>
+      </c>
+      <c r="F71">
+        <v>-0.04463875663108999</v>
+      </c>
+      <c r="G71">
+        <v>0.002239473744782892</v>
+      </c>
+      <c r="H71">
+        <v>0.006388541574930687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1428555301689945</v>
+        <v>0.1450248274391452</v>
       </c>
       <c r="C72">
-        <v>0.05732726905403726</v>
+        <v>0.03119819968090976</v>
       </c>
       <c r="D72">
-        <v>0.0009956593652475751</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001510410288900195</v>
+      </c>
+      <c r="E72">
+        <v>-0.07558004567876751</v>
+      </c>
+      <c r="F72">
+        <v>0.1698730976008051</v>
+      </c>
+      <c r="G72">
+        <v>0.1134570456568791</v>
+      </c>
+      <c r="H72">
+        <v>-0.01874022802176483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2867373813006996</v>
+        <v>0.2871704926117709</v>
       </c>
       <c r="C73">
-        <v>0.09271612748577739</v>
+        <v>0.02740282613238798</v>
       </c>
       <c r="D73">
-        <v>0.05264169609914051</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1064723623883955</v>
+      </c>
+      <c r="E73">
+        <v>-0.2315142573089903</v>
+      </c>
+      <c r="F73">
+        <v>-0.08949627815981821</v>
+      </c>
+      <c r="G73">
+        <v>-0.1948916302097991</v>
+      </c>
+      <c r="H73">
+        <v>-0.4807907824128861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08321288527161835</v>
+        <v>0.09111009929317887</v>
       </c>
       <c r="C74">
-        <v>0.07522576246101723</v>
+        <v>0.05671961944183933</v>
       </c>
       <c r="D74">
-        <v>0.00676273671705275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03546648387986097</v>
+      </c>
+      <c r="E74">
+        <v>-0.001918270370665883</v>
+      </c>
+      <c r="F74">
+        <v>0.002775690390789497</v>
+      </c>
+      <c r="G74">
+        <v>-0.04373505624793288</v>
+      </c>
+      <c r="H74">
+        <v>0.125993422085687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09790794084642498</v>
+        <v>0.1025996145600808</v>
       </c>
       <c r="C75">
-        <v>0.0482258898108968</v>
+        <v>0.02565929036292291</v>
       </c>
       <c r="D75">
-        <v>0.00944161537091048</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02176987070084145</v>
+      </c>
+      <c r="E75">
+        <v>0.003413659309836437</v>
+      </c>
+      <c r="F75">
+        <v>-0.01403796727909943</v>
+      </c>
+      <c r="G75">
+        <v>-0.0234341930908552</v>
+      </c>
+      <c r="H75">
+        <v>0.120824495269414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1335374113955511</v>
+        <v>0.1430718478005363</v>
       </c>
       <c r="C76">
-        <v>0.07883261628360472</v>
+        <v>0.05443479687653732</v>
       </c>
       <c r="D76">
-        <v>0.0382136390410655</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05233932841901136</v>
+      </c>
+      <c r="E76">
+        <v>0.01493003899729791</v>
+      </c>
+      <c r="F76">
+        <v>-0.04474134443839946</v>
+      </c>
+      <c r="G76">
+        <v>-0.006806818656075148</v>
+      </c>
+      <c r="H76">
+        <v>0.2197026929396102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.117432544171153</v>
+        <v>0.1048816748164182</v>
       </c>
       <c r="C77">
-        <v>0.01009556243003298</v>
+        <v>-0.01990099494617095</v>
       </c>
       <c r="D77">
-        <v>0.09551937940441586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04187858500702812</v>
+      </c>
+      <c r="E77">
+        <v>0.02076939746783413</v>
+      </c>
+      <c r="F77">
+        <v>-0.07360180913692475</v>
+      </c>
+      <c r="G77">
+        <v>0.8723295626468546</v>
+      </c>
+      <c r="H77">
+        <v>-0.1632221678209058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1076611376094285</v>
+        <v>0.1500044542952664</v>
       </c>
       <c r="C78">
-        <v>0.03485617244675709</v>
+        <v>0.03142696308601266</v>
       </c>
       <c r="D78">
-        <v>0.08643804708944998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07588550536694397</v>
+      </c>
+      <c r="E78">
+        <v>0.04931111030748854</v>
+      </c>
+      <c r="F78">
+        <v>-0.05899432774849826</v>
+      </c>
+      <c r="G78">
+        <v>0.08078645070230749</v>
+      </c>
+      <c r="H78">
+        <v>-0.04767537095995455</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1484650746789726</v>
+        <v>0.1495516242360938</v>
       </c>
       <c r="C79">
-        <v>0.06659550739710082</v>
+        <v>0.03542172720502051</v>
       </c>
       <c r="D79">
-        <v>0.01797357638152196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03391951664109783</v>
+      </c>
+      <c r="E79">
+        <v>-0.01419545523046251</v>
+      </c>
+      <c r="F79">
+        <v>-0.01414951514734211</v>
+      </c>
+      <c r="G79">
+        <v>-0.02529737297927672</v>
+      </c>
+      <c r="H79">
+        <v>0.1683749843148338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04122280382027987</v>
+        <v>0.04221472234525347</v>
       </c>
       <c r="C80">
-        <v>0.01886000901537846</v>
+        <v>0.01262794972070854</v>
       </c>
       <c r="D80">
-        <v>0.02906089649273328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01608290691896614</v>
+      </c>
+      <c r="E80">
+        <v>-0.02992986940052324</v>
+      </c>
+      <c r="F80">
+        <v>-0.002281001493775242</v>
+      </c>
+      <c r="G80">
+        <v>-0.02284829951240797</v>
+      </c>
+      <c r="H80">
+        <v>0.03395652803317444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1188583718574041</v>
+        <v>0.1205645066348474</v>
       </c>
       <c r="C81">
-        <v>0.05822948348853587</v>
+        <v>0.03344207890831139</v>
       </c>
       <c r="D81">
-        <v>0.03248228715826468</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03064585226584178</v>
+      </c>
+      <c r="E81">
+        <v>0.008086278160449243</v>
+      </c>
+      <c r="F81">
+        <v>-0.01809312323719232</v>
+      </c>
+      <c r="G81">
+        <v>-0.04901386492215429</v>
+      </c>
+      <c r="H81">
+        <v>0.167926475461821</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1318450274180148</v>
+        <v>0.1312130246788519</v>
       </c>
       <c r="C82">
-        <v>0.07173057098981447</v>
+        <v>0.04654350323878735</v>
       </c>
       <c r="D82">
-        <v>0.01212076992975131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0336237518653302</v>
+      </c>
+      <c r="E82">
+        <v>-0.02172344508706467</v>
+      </c>
+      <c r="F82">
+        <v>-0.04718052339067293</v>
+      </c>
+      <c r="G82">
+        <v>-0.03419120733737103</v>
+      </c>
+      <c r="H82">
+        <v>0.221974456066737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06842626829282542</v>
+        <v>0.08255687680872674</v>
       </c>
       <c r="C83">
-        <v>-0.02320497807441729</v>
+        <v>-0.03396681873819195</v>
       </c>
       <c r="D83">
-        <v>0.01947841367531742</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0255817556685551</v>
+      </c>
+      <c r="E83">
+        <v>0.02058081560503427</v>
+      </c>
+      <c r="F83">
+        <v>-0.06340778510359854</v>
+      </c>
+      <c r="G83">
+        <v>-0.05724971274101726</v>
+      </c>
+      <c r="H83">
+        <v>-0.04288756746028125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02957436358061989</v>
+        <v>0.03826051303458196</v>
       </c>
       <c r="C84">
-        <v>0.02776609223322028</v>
+        <v>0.02189738306897647</v>
       </c>
       <c r="D84">
-        <v>0.0253435573315248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02970852936379204</v>
+      </c>
+      <c r="E84">
+        <v>0.03154135884584965</v>
+      </c>
+      <c r="F84">
+        <v>0.04944610502935863</v>
+      </c>
+      <c r="G84">
+        <v>-0.05831911086287721</v>
+      </c>
+      <c r="H84">
+        <v>0.006389735777067722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1154616294421092</v>
+        <v>0.1195895215571817</v>
       </c>
       <c r="C85">
-        <v>0.04168333970688683</v>
+        <v>0.01899916911370932</v>
       </c>
       <c r="D85">
-        <v>0.04722799383466655</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03931444160892135</v>
+      </c>
+      <c r="E85">
+        <v>0.01839312422049296</v>
+      </c>
+      <c r="F85">
+        <v>-0.04034968334727403</v>
+      </c>
+      <c r="G85">
+        <v>-0.0232728108085416</v>
+      </c>
+      <c r="H85">
+        <v>0.1590248282979217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05257196400134598</v>
+        <v>0.05619851714393803</v>
       </c>
       <c r="C86">
-        <v>0.01937680430374579</v>
+        <v>0.007482020778642128</v>
       </c>
       <c r="D86">
-        <v>0.05509624714151689</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03356211262251037</v>
+      </c>
+      <c r="E86">
+        <v>0.04865392253533826</v>
+      </c>
+      <c r="F86">
+        <v>-0.02225254505354524</v>
+      </c>
+      <c r="G86">
+        <v>-0.03179689889787531</v>
+      </c>
+      <c r="H86">
+        <v>-0.01794960831666997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1220736938289008</v>
+        <v>0.1259108079457415</v>
       </c>
       <c r="C87">
-        <v>0.06525566033394307</v>
+        <v>0.03293455662868687</v>
       </c>
       <c r="D87">
-        <v>0.07431054808362092</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06770368868013815</v>
+      </c>
+      <c r="E87">
+        <v>0.01254836295547871</v>
+      </c>
+      <c r="F87">
+        <v>-0.01217116380215975</v>
+      </c>
+      <c r="G87">
+        <v>0.1229967401349711</v>
+      </c>
+      <c r="H87">
+        <v>-0.05490597924111743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0536266818695452</v>
+        <v>0.06210020305984713</v>
       </c>
       <c r="C88">
-        <v>0.0282226166851155</v>
+        <v>0.01852571661263012</v>
       </c>
       <c r="D88">
-        <v>0.02472498689377271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03557752316666586</v>
+      </c>
+      <c r="E88">
+        <v>0.01518346731875112</v>
+      </c>
+      <c r="F88">
+        <v>-0.01007311997937754</v>
+      </c>
+      <c r="G88">
+        <v>0.01062257717483236</v>
+      </c>
+      <c r="H88">
+        <v>0.04641381028667824</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09013274764993882</v>
+        <v>0.1040471832904183</v>
       </c>
       <c r="C89">
-        <v>0.07245465967821232</v>
+        <v>0.1081001233116271</v>
       </c>
       <c r="D89">
-        <v>-0.3294917357018898</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3390646412435275</v>
+      </c>
+      <c r="E89">
+        <v>0.07045376999607847</v>
+      </c>
+      <c r="F89">
+        <v>-0.08500427947227222</v>
+      </c>
+      <c r="G89">
+        <v>-0.02249980055653661</v>
+      </c>
+      <c r="H89">
+        <v>0.005034920103360712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07625589704464303</v>
+        <v>0.08496771661214562</v>
       </c>
       <c r="C90">
-        <v>0.05902976207668698</v>
+        <v>0.08840714938830675</v>
       </c>
       <c r="D90">
-        <v>-0.3104731418118997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2993185915744265</v>
+      </c>
+      <c r="E90">
+        <v>0.0708288678967617</v>
+      </c>
+      <c r="F90">
+        <v>-0.01036829217384805</v>
+      </c>
+      <c r="G90">
+        <v>0.01518130034994426</v>
+      </c>
+      <c r="H90">
+        <v>-0.009932744822051465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08869831422925484</v>
+        <v>0.09100499799566719</v>
       </c>
       <c r="C91">
-        <v>0.0497648646100016</v>
+        <v>0.0288060690878424</v>
       </c>
       <c r="D91">
-        <v>0.0211212341741475</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03062925605371062</v>
+      </c>
+      <c r="E91">
+        <v>0.008022465606097861</v>
+      </c>
+      <c r="F91">
+        <v>-0.002346702132709821</v>
+      </c>
+      <c r="G91">
+        <v>-0.03587868404119697</v>
+      </c>
+      <c r="H91">
+        <v>0.09619810557055121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07577156154529745</v>
+        <v>0.08591091358135222</v>
       </c>
       <c r="C92">
-        <v>0.07391016454510244</v>
+        <v>0.1094014981644125</v>
       </c>
       <c r="D92">
-        <v>-0.3341658485042843</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3346403780799311</v>
+      </c>
+      <c r="E92">
+        <v>0.04092391781097152</v>
+      </c>
+      <c r="F92">
+        <v>-0.04468152871754508</v>
+      </c>
+      <c r="G92">
+        <v>0.01341390221411267</v>
+      </c>
+      <c r="H92">
+        <v>0.01645004633025784</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0669957245212229</v>
+        <v>0.08085393542479703</v>
       </c>
       <c r="C93">
-        <v>0.0656945794648504</v>
+        <v>0.1014177370678219</v>
       </c>
       <c r="D93">
-        <v>-0.2957711991133209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2976809926864564</v>
+      </c>
+      <c r="E93">
+        <v>0.02338042833762972</v>
+      </c>
+      <c r="F93">
+        <v>-0.03279548913564047</v>
+      </c>
+      <c r="G93">
+        <v>0.01949929316288365</v>
+      </c>
+      <c r="H93">
+        <v>-0.01412520525579716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1349946024551485</v>
+        <v>0.1295702841157216</v>
       </c>
       <c r="C94">
-        <v>0.04308573575661855</v>
+        <v>0.01136182532111328</v>
       </c>
       <c r="D94">
-        <v>0.04028691016802276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0485193025246184</v>
+      </c>
+      <c r="E94">
+        <v>-0.01645681053098386</v>
+      </c>
+      <c r="F94">
+        <v>-0.01233161255732546</v>
+      </c>
+      <c r="G94">
+        <v>-0.05513516951731043</v>
+      </c>
+      <c r="H94">
+        <v>0.1159441865434778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1223551058380944</v>
+        <v>0.1290311236093825</v>
       </c>
       <c r="C95">
-        <v>0.02267426227367133</v>
+        <v>-0.003069767038316101</v>
       </c>
       <c r="D95">
-        <v>0.05071164426344512</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05912268470680734</v>
+      </c>
+      <c r="E95">
+        <v>0.01084097654254728</v>
+      </c>
+      <c r="F95">
+        <v>-0.04591860347260061</v>
+      </c>
+      <c r="G95">
+        <v>0.04855908504610902</v>
+      </c>
+      <c r="H95">
+        <v>-0.06067574218845392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2207068427530228</v>
+        <v>0.2016820960688627</v>
       </c>
       <c r="C97">
-        <v>0.03794613850159549</v>
+        <v>-0.0054863397331344</v>
       </c>
       <c r="D97">
-        <v>-0.1115471674196658</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.07933004172706365</v>
+      </c>
+      <c r="E97">
+        <v>-0.1470822429450709</v>
+      </c>
+      <c r="F97">
+        <v>0.9183662270621618</v>
+      </c>
+      <c r="G97">
+        <v>0.0503943327853517</v>
+      </c>
+      <c r="H97">
+        <v>-0.0002110275258039828</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2443142572212063</v>
+        <v>0.2748514169770182</v>
       </c>
       <c r="C98">
-        <v>0.05534220741381244</v>
+        <v>0.01936292594262106</v>
       </c>
       <c r="D98">
-        <v>0.03158824914219496</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05462843896260065</v>
+      </c>
+      <c r="E98">
+        <v>-0.1901099686766474</v>
+      </c>
+      <c r="F98">
+        <v>-0.05783833380682698</v>
+      </c>
+      <c r="G98">
+        <v>-0.2572721306585832</v>
+      </c>
+      <c r="H98">
+        <v>-0.1965619391951804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3996663201222275</v>
+        <v>0.2649757514147284</v>
       </c>
       <c r="C99">
-        <v>-0.8984730755700712</v>
+        <v>-0.9263524382429943</v>
       </c>
       <c r="D99">
-        <v>-0.05945341824373288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.194816104705346</v>
+      </c>
+      <c r="E99">
+        <v>0.0700656060877463</v>
+      </c>
+      <c r="F99">
+        <v>-0.06469802561317541</v>
+      </c>
+      <c r="G99">
+        <v>-0.01316281184143949</v>
+      </c>
+      <c r="H99">
+        <v>0.07010690229195692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04265282544439981</v>
+        <v>0.04751110140768271</v>
       </c>
       <c r="C101">
-        <v>0.0290100664752323</v>
+        <v>0.02429791019070783</v>
       </c>
       <c r="D101">
-        <v>0.01077055641257134</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01166550373464914</v>
+      </c>
+      <c r="E101">
+        <v>0.06194887420726734</v>
+      </c>
+      <c r="F101">
+        <v>-0.01457212273986535</v>
+      </c>
+      <c r="G101">
+        <v>0.00448325791872837</v>
+      </c>
+      <c r="H101">
+        <v>0.07703937505766824</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
